--- a/members coordination.xlsx
+++ b/members coordination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbf8f06749eb14df/Desktop/تحلیل و طراحی سیستم ها - شعرباف/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D274E3D0-6132-485F-8E90-31DC48870798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB922E86-9EEA-46BE-BA76-6D37BC97E819}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D274E3D0-6132-485F-8E90-31DC48870798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C2971F-7843-44E9-BD86-82E3A8952E1E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CE6539D-4507-4EB2-BEBE-03ED57C1AEDD}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,8 +510,17 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
       <c r="D4">
         <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
       </c>
       <c r="G4">
         <v>100</v>
